--- a/Documents/CSDL/TableDetail.xlsx
+++ b/Documents/CSDL/TableDetail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\E-Book-Order-G02\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tung1\OneDrive\Desktop\Project-G02\E-Book-Order-G02\Documents\CSDL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_DDAE3E0BDB55FE2A2820949FF7BCF897B088EA24" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E67F9410-3804-41E7-8ABF-CB264C34D470}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="54">
   <si>
     <t>User</t>
   </si>
@@ -184,28 +180,10 @@
 Items(itemId)</t>
   </si>
   <si>
-    <t>Companies</t>
-  </si>
-  <si>
-    <t>companyId</t>
-  </si>
-  <si>
-    <t>companyName</t>
-  </si>
-  <si>
-    <t>companyAdress</t>
-  </si>
-  <si>
-    <t>companyPhone</t>
-  </si>
-  <si>
     <t>Unique</t>
   </si>
   <si>
     <t>not null</t>
-  </si>
-  <si>
-    <t>userCompanyId</t>
   </si>
   <si>
     <t>Foreign Key</t>
@@ -213,12 +191,15 @@
   <si>
     <t>Primary Key,
 Auto increment</t>
+  </si>
+  <si>
+    <t>idItemsPaid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -345,6 +326,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,12 +340,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,33 +654,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:E60"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -716,7 +697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -725,11 +706,11 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -740,11 +721,11 @@
         <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -755,11 +736,11 @@
         <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -770,11 +751,11 @@
         <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -785,11 +766,11 @@
         <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -800,11 +781,11 @@
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -815,11 +796,11 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -828,36 +809,36 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -874,8 +855,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -883,12 +864,12 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -898,12 +879,12 @@
         <v>100</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -913,12 +894,12 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -930,8 +911,8 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -943,8 +924,8 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -954,8 +935,8 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -965,8 +946,8 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -974,12 +955,12 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -989,8 +970,8 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1002,8 +983,8 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1015,8 +996,8 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -1026,16 +1007,16 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -1052,7 +1033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>26</v>
       </c>
@@ -1061,11 +1042,11 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>1</v>
       </c>
@@ -1078,7 +1059,7 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>27</v>
       </c>
@@ -1087,11 +1068,11 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -1102,16 +1083,16 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -1128,7 +1109,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>26</v>
       </c>
@@ -1141,7 +1122,7 @@
       </c>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>11</v>
       </c>
@@ -1154,7 +1135,7 @@
       </c>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
@@ -1167,16 +1148,16 @@
       </c>
       <c r="E43" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>29</v>
       </c>
@@ -1193,8 +1174,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -1206,8 +1187,8 @@
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -1219,8 +1200,8 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -1230,8 +1211,8 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -1243,8 +1224,8 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -1254,93 +1235,14 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="4">
-        <v>100</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="4">
-        <v>255</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="4">
-        <v>20</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E64" s="10"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A55:E55"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A15:E15"/>
   </mergeCells>
